--- a/leetcode/SepNeetcodeSakshi(AutoRecovered).xlsx
+++ b/leetcode/SepNeetcodeSakshi(AutoRecovered).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sakshisrivastava/Desktop/hanumant_fullstack/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCB74E6-CB26-0543-848F-E399BAFFCF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214F657F-464E-364E-8564-D994D48FC611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15560" xr2:uid="{7223D205-73F4-4148-BF4C-16C1EFE483E0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>Sakshi neetcode Track</t>
   </si>
@@ -147,6 +147,30 @@
   </si>
   <si>
     <t>Day</t>
+  </si>
+  <si>
+    <t>6:33pm</t>
+  </si>
+  <si>
+    <t>7:00pm</t>
+  </si>
+  <si>
+    <t>7:35pm</t>
+  </si>
+  <si>
+    <t>8:27pm</t>
+  </si>
+  <si>
+    <t>days left</t>
+  </si>
+  <si>
+    <t>26 days</t>
+  </si>
+  <si>
+    <t>backtracking over</t>
+  </si>
+  <si>
+    <t>trie start</t>
   </si>
 </sst>
 </file>
@@ -632,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB9B0579-A1A3-6345-8471-7145320CE37A}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -650,12 +674,12 @@
     <col min="11" max="11" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -663,7 +687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -695,8 +719,11 @@
       <c r="K4" s="11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>45533</v>
       </c>
@@ -716,7 +743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>45534</v>
       </c>
@@ -742,7 +769,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>45535</v>
       </c>
@@ -768,7 +795,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>45536</v>
       </c>
@@ -794,23 +821,47 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>45537</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="13">
+        <v>78</v>
+      </c>
+      <c r="L9" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="14"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="14"/>
       <c r="C11" s="6"/>
@@ -818,7 +869,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="14"/>
       <c r="C12" s="6"/>
@@ -826,7 +877,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="14"/>
       <c r="C13" s="6"/>
@@ -834,7 +885,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="14"/>
       <c r="C14" s="7"/>
@@ -842,7 +893,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="14"/>
       <c r="C15" s="7"/>
@@ -850,7 +901,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="14"/>
       <c r="C16" s="7"/>

--- a/leetcode/SepNeetcodeSakshi(AutoRecovered).xlsx
+++ b/leetcode/SepNeetcodeSakshi(AutoRecovered).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sakshisrivastava/Desktop/hanumant_fullstack/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214F657F-464E-364E-8564-D994D48FC611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D7E61E-9136-B54F-AAF4-E97B964CBCD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15560" xr2:uid="{7223D205-73F4-4148-BF4C-16C1EFE483E0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>Sakshi neetcode Track</t>
   </si>
@@ -171,6 +171,33 @@
   </si>
   <si>
     <t>trie start</t>
+  </si>
+  <si>
+    <t>Revision start time</t>
+  </si>
+  <si>
+    <t>6:00pm</t>
+  </si>
+  <si>
+    <t>8:20pm</t>
+  </si>
+  <si>
+    <t>9:09pm</t>
+  </si>
+  <si>
+    <t>incomplete</t>
+  </si>
+  <si>
+    <t>27 days</t>
+  </si>
+  <si>
+    <t>5-sep:</t>
+  </si>
+  <si>
+    <t>10am</t>
+  </si>
+  <si>
+    <t>graph start</t>
   </si>
 </sst>
 </file>
@@ -205,7 +232,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,8 +269,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFE402E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -277,11 +310,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -320,6 +362,15 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -328,6 +379,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFE402E"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -656,319 +712,369 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB9B0579-A1A3-6345-8471-7145320CE37A}">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" customWidth="1"/>
-    <col min="8" max="8" width="26.5" style="13" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="13"/>
-    <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="13"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="26.5" style="13" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="13"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="13"/>
+    <col min="14" max="14" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B2" s="1"/>
+      <c r="E2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="I4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="J4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="K4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="L4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="M4" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>45533</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="8">
+      <c r="F5" s="8">
         <v>0.32569444444444445</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>45534</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="G6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="13">
+      <c r="I6" s="13">
         <v>88</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="J6" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>45535</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="G7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="13">
+      <c r="I7" s="13">
         <v>84</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>45536</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="G8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="13">
+      <c r="I8" s="13">
         <v>81</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="L8" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>45537</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="G9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="13">
+      <c r="I9" s="13">
         <v>78</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>42</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>45538</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="F10" s="6"/>
-      <c r="M10" t="s">
+      <c r="G10" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="13">
+        <v>76</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="6"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="G11" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G12" s="6"/>
+      <c r="N12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="6"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="7"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="7"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="7"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="7"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="7"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="7"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="7"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="7"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-    </row>
-    <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="D25" s="12" t="s">
+      <c r="G21" s="7"/>
+    </row>
+    <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="E25" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C30" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C31" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
         <v>30</v>
       </c>
     </row>

--- a/leetcode/SepNeetcodeSakshi(AutoRecovered).xlsx
+++ b/leetcode/SepNeetcodeSakshi(AutoRecovered).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sakshisrivastava/Desktop/hanumant_fullstack/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D7E61E-9136-B54F-AAF4-E97B964CBCD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EAF764-3A83-2A4D-9BF9-A4CC9F778759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15560" xr2:uid="{7223D205-73F4-4148-BF4C-16C1EFE483E0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
   <si>
     <t>Sakshi neetcode Track</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>graph start</t>
+  </si>
+  <si>
+    <t>25. dyas</t>
   </si>
 </sst>
 </file>
@@ -715,7 +718,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -969,7 +972,15 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="G12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="13">
+        <v>73</v>
+      </c>
+      <c r="M12" t="s">
+        <v>54</v>
+      </c>
       <c r="N12" t="s">
         <v>53</v>
       </c>

--- a/leetcode/SepNeetcodeSakshi(AutoRecovered).xlsx
+++ b/leetcode/SepNeetcodeSakshi(AutoRecovered).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sakshisrivastava/Desktop/hanumant_fullstack/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EAF764-3A83-2A4D-9BF9-A4CC9F778759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30216D88-8C37-0D47-AEC1-65F1049969BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15560" xr2:uid="{7223D205-73F4-4148-BF4C-16C1EFE483E0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
   <si>
     <t>Sakshi neetcode Track</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>25. dyas</t>
+  </si>
+  <si>
+    <t>6:30pm</t>
   </si>
 </sst>
 </file>
@@ -718,7 +721,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -970,10 +973,12 @@
       <c r="D12" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="10" t="s">
-        <v>10</v>
+      <c r="G12" s="18" t="s">
+        <v>49</v>
       </c>
       <c r="I12" s="13">
         <v>73</v>

--- a/leetcode/SepNeetcodeSakshi(AutoRecovered).xlsx
+++ b/leetcode/SepNeetcodeSakshi(AutoRecovered).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sakshisrivastava/Desktop/hanumant_fullstack/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30216D88-8C37-0D47-AEC1-65F1049969BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A5F23C-0B46-F947-9BB1-FB4E6AC9D3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15560" xr2:uid="{7223D205-73F4-4148-BF4C-16C1EFE483E0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
   <si>
     <t>Sakshi neetcode Track</t>
   </si>
@@ -204,6 +204,18 @@
   </si>
   <si>
     <t>6:30pm</t>
+  </si>
+  <si>
+    <t>12:13pm</t>
+  </si>
+  <si>
+    <t>11:06AM</t>
+  </si>
+  <si>
+    <t>1:31pm</t>
+  </si>
+  <si>
+    <t>2;02pm</t>
   </si>
 </sst>
 </file>
@@ -238,7 +250,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,6 +290,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFE402E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -377,6 +395,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -720,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB9B0579-A1A3-6345-8471-7145320CE37A}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -997,16 +1029,31 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="G13" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="19">
+        <v>45542</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="L14" s="24"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>

--- a/leetcode/SepNeetcodeSakshi(AutoRecovered).xlsx
+++ b/leetcode/SepNeetcodeSakshi(AutoRecovered).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sakshisrivastava/Desktop/hanumant_fullstack/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A5F23C-0B46-F947-9BB1-FB4E6AC9D3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25AB5A9-19BF-8F4E-95AE-4612BB98A1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15560" xr2:uid="{7223D205-73F4-4148-BF4C-16C1EFE483E0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>Sakshi neetcode Track</t>
   </si>
@@ -216,6 +216,18 @@
   </si>
   <si>
     <t>2;02pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grph 8 pending </t>
+  </si>
+  <si>
+    <t>6 question behind track</t>
+  </si>
+  <si>
+    <t>11:53pm</t>
+  </si>
+  <si>
+    <t>6:18pm</t>
   </si>
 </sst>
 </file>
@@ -295,7 +307,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -397,11 +409,29 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="16" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -750,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB9B0579-A1A3-6345-8471-7145320CE37A}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -768,14 +798,15 @@
     <col min="11" max="11" width="18" customWidth="1"/>
     <col min="12" max="12" width="10.83203125" style="13"/>
     <col min="14" max="14" width="22.83203125" customWidth="1"/>
+    <col min="15" max="15" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -784,7 +815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="16" t="s">
         <v>45</v>
@@ -822,8 +853,11 @@
       <c r="M4" s="11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>45533</v>
       </c>
@@ -844,7 +878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>45534</v>
       </c>
@@ -871,7 +905,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>45535</v>
       </c>
@@ -898,7 +932,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>45536</v>
       </c>
@@ -925,7 +959,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>45537</v>
       </c>
@@ -955,7 +989,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>45538</v>
       </c>
@@ -985,8 +1019,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>45539</v>
+      </c>
       <c r="B11" s="3"/>
       <c r="C11" s="14"/>
       <c r="D11" s="6"/>
@@ -996,7 +1032,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>51</v>
       </c>
@@ -1022,8 +1058,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>45541</v>
+      </c>
       <c r="B13" s="3"/>
       <c r="C13" s="14"/>
       <c r="D13" s="6"/>
@@ -1033,8 +1071,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="19">
+    <row r="14" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
         <v>45542</v>
       </c>
       <c r="B14" s="20" t="s">
@@ -1049,22 +1087,45 @@
       <c r="E14" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="L14" s="24"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F14" s="23">
+        <v>0.35486111111111113</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="26">
+        <v>68</v>
+      </c>
+      <c r="J14" s="27">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="L14" s="26"/>
+      <c r="M14" s="25">
+        <v>23</v>
+      </c>
+      <c r="N14" s="25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="28">
+        <v>45543</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="L15" s="32"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="14"/>

--- a/leetcode/SepNeetcodeSakshi(AutoRecovered).xlsx
+++ b/leetcode/SepNeetcodeSakshi(AutoRecovered).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sakshisrivastava/Desktop/hanumant_fullstack/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25AB5A9-19BF-8F4E-95AE-4612BB98A1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC65FA6A-C945-0145-B2CD-67359CFBB140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15560" xr2:uid="{7223D205-73F4-4148-BF4C-16C1EFE483E0}"/>
   </bookViews>
@@ -783,7 +783,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1135,7 +1135,9 @@
       <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
+      <c r="A17" s="3">
+        <v>45549</v>
+      </c>
       <c r="B17" s="3"/>
       <c r="C17" s="14"/>
       <c r="D17" s="7"/>

--- a/leetcode/SepNeetcodeSakshi(AutoRecovered).xlsx
+++ b/leetcode/SepNeetcodeSakshi(AutoRecovered).xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sakshisrivastava/Desktop/hanumant_fullstack/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC65FA6A-C945-0145-B2CD-67359CFBB140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4530F4F-8D1E-9E40-BABF-7343D89E5D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15560" xr2:uid="{7223D205-73F4-4148-BF4C-16C1EFE483E0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="neetcode 150 Tracker" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="82">
   <si>
     <t>Sakshi neetcode Track</t>
   </si>
@@ -221,13 +221,67 @@
     <t xml:space="preserve">grph 8 pending </t>
   </si>
   <si>
-    <t>6 question behind track</t>
-  </si>
-  <si>
     <t>11:53pm</t>
   </si>
   <si>
     <t>6:18pm</t>
+  </si>
+  <si>
+    <t>2:13pm</t>
+  </si>
+  <si>
+    <t>4:00pm</t>
+  </si>
+  <si>
+    <t>5:10pm</t>
+  </si>
+  <si>
+    <t>5:56pm</t>
+  </si>
+  <si>
+    <t>6:22pm</t>
+  </si>
+  <si>
+    <t>7:10pm,8:06pm</t>
+  </si>
+  <si>
+    <t>15days</t>
+  </si>
+  <si>
+    <t>advance graph : 4 pending</t>
+  </si>
+  <si>
+    <t>6 days pending</t>
+  </si>
+  <si>
+    <t>18 quedsion pending</t>
+  </si>
+  <si>
+    <t>11:00am</t>
+  </si>
+  <si>
+    <t>1:12pm</t>
+  </si>
+  <si>
+    <t>2:07pm</t>
+  </si>
+  <si>
+    <t>6:65am</t>
+  </si>
+  <si>
+    <t>8:13am</t>
+  </si>
+  <si>
+    <t>8:53AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRAPH OVER, NOW 1DP PROBLEM </t>
+  </si>
+  <si>
+    <t>19 DAY</t>
+  </si>
+  <si>
+    <t>12 PROBLEM 4 DAYS</t>
   </si>
 </sst>
 </file>
@@ -359,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -441,6 +495,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -783,7 +839,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -797,7 +853,7 @@
     <col min="10" max="10" width="10.83203125" style="13"/>
     <col min="11" max="11" width="18" customWidth="1"/>
     <col min="12" max="12" width="10.83203125" style="13"/>
-    <col min="14" max="14" width="22.83203125" customWidth="1"/>
+    <col min="14" max="14" width="28.83203125" customWidth="1"/>
     <col min="15" max="15" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -854,7 +910,7 @@
         <v>41</v>
       </c>
       <c r="O4" s="19" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -1112,10 +1168,10 @@
         <v>45543</v>
       </c>
       <c r="B15" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="29" t="s">
         <v>62</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>63</v>
       </c>
       <c r="D15" s="30"/>
       <c r="E15" s="30"/>
@@ -1134,45 +1190,98 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>45549</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="14"/>
+      <c r="B17" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>45550</v>
+      </c>
       <c r="B18" s="3"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="7"/>
+      <c r="C18" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18" s="13">
+        <v>61</v>
+      </c>
+      <c r="M18" t="s">
+        <v>69</v>
+      </c>
+      <c r="N18" t="s">
+        <v>70</v>
+      </c>
+      <c r="O18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>45551</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>75</v>
+      </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>45552</v>
+      </c>
       <c r="B20" s="3"/>
       <c r="C20" s="14"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="D20" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I20" s="13">
+        <v>57</v>
+      </c>
+      <c r="M20" t="s">
+        <v>80</v>
+      </c>
+      <c r="N20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="14"/>
@@ -1180,8 +1289,11 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-    </row>
-    <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="N21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="E25" s="12" t="s">
         <v>17</v>
       </c>
@@ -1189,17 +1301,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
         <v>30</v>
       </c>

--- a/leetcode/SepNeetcodeSakshi(AutoRecovered).xlsx
+++ b/leetcode/SepNeetcodeSakshi(AutoRecovered).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sakshisrivastava/Desktop/hanumant_fullstack/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4530F4F-8D1E-9E40-BABF-7343D89E5D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBF1B53-DBC0-654B-BA4F-05CC2E1B31DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15560" xr2:uid="{7223D205-73F4-4148-BF4C-16C1EFE483E0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
   <si>
     <t>Sakshi neetcode Track</t>
   </si>
@@ -282,6 +282,9 @@
   </si>
   <si>
     <t>12 PROBLEM 4 DAYS</t>
+  </si>
+  <si>
+    <t>1:02pm,1:38pm</t>
   </si>
 </sst>
 </file>
@@ -413,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -497,6 +500,7 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -839,7 +843,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1271,6 +1275,9 @@
         <v>78</v>
       </c>
       <c r="G20" s="7"/>
+      <c r="H20" s="35" t="s">
+        <v>82</v>
+      </c>
       <c r="I20" s="13">
         <v>57</v>
       </c>

--- a/leetcode/SepNeetcodeSakshi(AutoRecovered).xlsx
+++ b/leetcode/SepNeetcodeSakshi(AutoRecovered).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sakshisrivastava/Desktop/hanumant_fullstack/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBF1B53-DBC0-654B-BA4F-05CC2E1B31DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFAF75F-A459-1249-9E54-8D258149363E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15560" xr2:uid="{7223D205-73F4-4148-BF4C-16C1EFE483E0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>Sakshi neetcode Track</t>
   </si>
@@ -285,6 +285,33 @@
   </si>
   <si>
     <t>1:02pm,1:38pm</t>
+  </si>
+  <si>
+    <t>11:52am</t>
+  </si>
+  <si>
+    <t>12:!3pm</t>
+  </si>
+  <si>
+    <t>12:42pm</t>
+  </si>
+  <si>
+    <t>12:54pm,</t>
+  </si>
+  <si>
+    <t>DP:6 question pending</t>
+  </si>
+  <si>
+    <t>17 days</t>
+  </si>
+  <si>
+    <t>12:30am</t>
+  </si>
+  <si>
+    <t>2:56am</t>
+  </si>
+  <si>
+    <t>1:30am</t>
   </si>
 </sst>
 </file>
@@ -416,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -500,6 +527,8 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -843,7 +872,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1274,7 +1303,9 @@
       <c r="F20" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G20" s="7"/>
+      <c r="G20" s="24" t="s">
+        <v>10</v>
+      </c>
       <c r="H20" s="35" t="s">
         <v>82</v>
       </c>
@@ -1287,17 +1318,53 @@
       <c r="N20" t="s">
         <v>79</v>
       </c>
+      <c r="O20" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
+      <c r="A21" s="3">
+        <v>45553</v>
+      </c>
       <c r="B21" s="3"/>
       <c r="C21" s="14"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="D21" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21" s="13">
+        <v>51</v>
+      </c>
+      <c r="M21" t="s">
+        <v>88</v>
+      </c>
       <c r="N21" t="s">
-        <v>81</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="36">
+        <v>45554</v>
+      </c>
+      <c r="C22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="18" x14ac:dyDescent="0.2">
